--- a/dashboard-ui/src/components/AggregateResults/Variable Definitions/PH1_Variables.xlsx
+++ b/dashboard-ui/src/components/AggregateResults/Variable Definitions/PH1_Variables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
   <si>
     <t>Variable</t>
   </si>
@@ -94,12 +94,24 @@
     <t>MJ_KDMA_Text</t>
   </si>
   <si>
+    <t>MJ_KDMA_Text_Narr</t>
+  </si>
+  <si>
+    <t>MJ_KDMA_Text_NonNarr</t>
+  </si>
+  <si>
     <t>MJ_KDMA_Sim</t>
   </si>
   <si>
     <t>IO_KDMA_Text</t>
   </si>
   <si>
+    <t>IO_KDMA_Text_Narr</t>
+  </si>
+  <si>
+    <t>IO_KDMA_Text_NonNarr</t>
+  </si>
+  <si>
     <t>IO_KDMA_Sim</t>
   </si>
   <si>
@@ -184,10 +196,22 @@
     <t>Moral Judgement KDMA measurement for all Adept text scenarios combined</t>
   </si>
   <si>
+    <t>Moral Judgement KDMA measurement from narrative Adept text scenario only (MJ2, MJ4, or MJ5)</t>
+  </si>
+  <si>
+    <t>Moral Judgement KDMA measurement from non narrative Adept text scenario only (MJ1)</t>
+  </si>
+  <si>
     <t>Moral Judgement KDMA measurement for the Adept Sim scenario</t>
   </si>
   <si>
     <t>Ingroup Bias KDMA measurement for all Adept text scenarios combined</t>
+  </si>
+  <si>
+    <t>Ingroup Bias KDMA measurement from narrative Adept text scenario only (MJ2, MJ4, or MJ5)</t>
+  </si>
+  <si>
+    <t>Ingroup Bias KDMA measurement from non narrative Adept text scenario only (IO1)</t>
   </si>
   <si>
     <t>Ingroup Bias KDMA measurement for the Adept Sim scenario</t>
@@ -612,7 +636,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AC6"/>
+  <dimension ref="A1:AG6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -643,10 +667,14 @@
     <col min="23" max="23" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="24" max="24" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="25" max="25" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="2" width="68.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="2" width="87.005" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="2" width="68.14785714285713" customWidth="1" bestFit="1"/>
     <col min="29" max="29" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="2" width="63.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="2" width="63.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -737,450 +765,522 @@
       <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
       <c r="A6" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
